--- a/run/log/log.xlsx
+++ b/run/log/log.xlsx
@@ -39,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -47,6 +47,17 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="华文行楷"/>
+      <b/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Consolas"/>
+      <color rgb="000000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -61,7 +72,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -76,14 +87,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="1" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,13 +460,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="90.83203125" customWidth="1"/>
+    <col min="2" max="2" width="190.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="str">
+        <v>调用属性</v>
+      </c>
+      <c r="B1" s="3" t="str">
+        <v>值</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="str">
+        <v>location.valueOf</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <v>function valueOf() { [native code] }</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="str">
+        <v>location.toString</v>
+      </c>
+      <c r="B3" s="4" t="str">
+        <v>function toString() { [native code] }</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="str">
+        <v>location.valueOf</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <v>function valueOf() { [native code] }</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="str">
+        <v>location.toString</v>
+      </c>
+      <c r="B5" s="4" t="str">
+        <v>function toString() { [native code] }</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:B5"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1"/>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1"/>
@@ -443,7 +531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -457,7 +545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -471,7 +559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -485,7 +573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -497,18 +585,4 @@
     <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
-  </ignoredErrors>
-</worksheet>
 </file>